--- a/3.1.1/3.1.1.xlsx
+++ b/3.1.1/3.1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений В Гисич\Documents\Top Secret\МФТИ\Лабы\3.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC6847-FC0F-4327-A5DF-7992D296BB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73CC412-A6F6-4045-B3D2-037B7476EB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CEE58F9-E989-45AC-A159-3D6ED1747382}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CEE58F9-E989-45AC-A159-3D6ED1747382}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -140,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +459,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,8 +714,8 @@
         <v>14700000</v>
       </c>
       <c r="K7" s="4">
-        <f>((H6/G6)^2+(H7/G8)^2)^0.5*J7</f>
-        <v>294000.4083330498</v>
+        <f>((H6/G6)^2+(H7/G7)^2)^0.5*J7</f>
+        <v>303415.55662160768</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
       </c>
       <c r="K8" s="3">
         <f>((K6/J6)^2+(K7/J7)^2)^0.5*J8</f>
-        <v>11374842.835549956</v>
+        <v>11449060.211447826</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
